--- a/论文写作/准备工作/参考文献.xlsx
+++ b/论文写作/准备工作/参考文献.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F473745-BA5E-4286-A253-A31E5BC49C7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0554FE26-1428-4662-B8CE-B1B44B22A523}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="126">
   <si>
     <t>文献名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1863,6 +1863,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭异质性（市场失灵）不能解释负向关系，是未能检测的地块和土地的变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2363,8 +2367,8 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2415,7 +2419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:11" s="8" customFormat="1" ht="256.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" s="8" customFormat="1" ht="337.5" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
@@ -2470,7 +2474,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -2513,7 +2517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" s="5" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
@@ -2547,7 +2551,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:11" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" s="5" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>56</v>
       </c>
@@ -2561,7 +2565,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:11" s="7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" s="7" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
@@ -2587,7 +2591,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:11" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:11" s="5" customFormat="1" ht="243" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>53</v>
       </c>
@@ -2605,7 +2609,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:11" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
         <v>59</v>
       </c>
@@ -2654,12 +2658,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" ht="54" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2670,7 +2674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11" ht="81" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -2684,12 +2688,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,7 +2709,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="54" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>87</v>
       </c>
@@ -2720,7 +2724,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="54" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>88</v>
       </c>
@@ -2734,7 +2738,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="108" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>92</v>
       </c>
@@ -2771,7 +2775,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>106</v>
       </c>
@@ -2793,6 +2797,9 @@
     <row r="25" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>94</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">

--- a/论文写作/准备工作/参考文献.xlsx
+++ b/论文写作/准备工作/参考文献.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0554FE26-1428-4662-B8CE-B1B44B22A523}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="R" sheetId="1" r:id="rId1"/>
     <sheet name="农户行为理论" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="157">
   <si>
     <t>文献名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1869,12 +1868,575 @@
     <t>家庭异质性（市场失灵）不能解释负向关系，是未能检测的地块和土地的变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>C-D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005-2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范红忠和周启良（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>小麦</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>亩均产量（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>kg/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>亩）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>水稻</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程申（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2010-2011
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>农户面板</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>玉米</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>王建英等（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2011</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>亩均产量（斤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>亩）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>亩均产量（千克</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>英亩）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>辛良杰等（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>对数线性模型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>亩均利润（元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>亩）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>王嫚嫚等（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>超越对数生产函数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>许庆等（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1993-1995</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>玉米、小麦、籼稻</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carletto(2013)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>作者</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>研究对象</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>函数形式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>土地生产率指标</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>规模弹性</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004-2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1946,6 +2508,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1967,7 +2562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1993,11 +2588,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2025,6 +2631,28 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2119,23 +2747,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2171,23 +2782,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2363,12 +2957,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2849,7 +3443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2862,14 +3456,235 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="13">
+        <v>2013</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="13">
+        <v>2012</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="13">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="15">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="15">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="15">
+        <v>-0.123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="13">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="13">
+        <v>-1.036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/论文写作/准备工作/参考文献.xlsx
+++ b/论文写作/准备工作/参考文献.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="216">
   <si>
     <t>文献名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2431,12 +2431,771 @@
     <t>2004-2006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>数据时间</t>
+  </si>
+  <si>
+    <t>研究对象</t>
+  </si>
+  <si>
+    <t>函数形式</t>
+  </si>
+  <si>
+    <t>土地生产率指标</t>
+  </si>
+  <si>
+    <t>规模弹性</t>
+  </si>
+  <si>
+    <r>
+      <t>范红忠和周启良（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <t>小麦</t>
+  </si>
+  <si>
+    <t>C-D</t>
+  </si>
+  <si>
+    <r>
+      <t>亩均产量（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>kg/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亩）</t>
+    </r>
+  </si>
+  <si>
+    <t>水稻</t>
+  </si>
+  <si>
+    <r>
+      <t>2010-2011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <t>玉米</t>
+  </si>
+  <si>
+    <r>
+      <t>王建英等（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>亩均产量（斤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亩）</t>
+    </r>
+  </si>
+  <si>
+    <t>Carletto(2013)</t>
+  </si>
+  <si>
+    <r>
+      <t>2005-2006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>亩均产量（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>kg/acre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>辛良杰等（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2004-2006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <t>半对数</t>
+  </si>
+  <si>
+    <r>
+      <t>亩均利润（元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亩）</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <t>王嫚嫚等（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>Trans-log</t>
+  </si>
+  <si>
+    <r>
+      <t>许庆等（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1993-1995</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <t>和籼稻</t>
+  </si>
+  <si>
+    <t>本研究</t>
+  </si>
+  <si>
+    <r>
+      <t>2011-2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <t>一熟玉米</t>
+  </si>
+  <si>
+    <t>两熟玉米</t>
+  </si>
+  <si>
+    <t>两熟小麦</t>
+  </si>
+  <si>
+    <t>稻谷</t>
+  </si>
+  <si>
+    <t>注：部分文献采取总量型生产函数，因变量非土地生产率，无法进一步得到规模弹性，因而表中仅呈现单产与规模关系的方向。</t>
+  </si>
+  <si>
+    <t>陈杰和苏群（2017）</t>
+  </si>
+  <si>
+    <t>陈杰和苏群（2017）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稻谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亩均产量（千克</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亩）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>程申（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>程申（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米、小麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>亩均产量（kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亩）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>倒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型</t>
+    </r>
+  </si>
+  <si>
+    <t>籼稻</t>
+  </si>
+  <si>
+    <r>
+      <t>1993-1995</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2541,6 +3300,60 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2562,7 +3375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2599,11 +3412,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2633,13 +3493,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2653,6 +3507,102 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3457,10 +4407,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -3470,218 +4420,938 @@
     <col min="3" max="4" width="16.125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="10"/>
+    <col min="7" max="7" width="9" style="10"/>
+    <col min="8" max="8" width="13.375" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>2013</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>0.124</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="12">
         <v>2012</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="13" t="s">
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="13" t="s">
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>-0.123</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>-1.036</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
         <v>129</v>
       </c>
     </row>
+    <row r="12" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" s="23">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" s="23">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" s="23">
+        <v>-0.123</v>
+      </c>
+    </row>
+    <row r="17" spans="8:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="H17" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="8:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="H18" s="39"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="H19" s="39"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H20" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" s="20">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="21" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H21" s="28"/>
+      <c r="I21" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21" s="20">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="8:13" ht="27" x14ac:dyDescent="0.2">
+      <c r="H22" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" s="20">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="8:13" ht="27" x14ac:dyDescent="0.2">
+      <c r="H23" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M23" s="20">
+        <v>-1.036</v>
+      </c>
+    </row>
+    <row r="24" spans="8:13" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="H24" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="8:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="H25" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25" s="25"/>
+      <c r="J25" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L25" s="25"/>
+      <c r="M25" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H26" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="L26" s="32"/>
+      <c r="M26" s="31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H27" s="29"/>
+      <c r="I27" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="31"/>
+    </row>
+    <row r="28" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H28" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M28" s="20">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H29" s="33"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M29" s="20">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H30" s="33"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M30" s="20">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="8:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="M31" s="27">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="8:13" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" s="23">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="30"/>
+      <c r="C40" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="23">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F41" s="23">
+        <v>-0.123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="31"/>
+      <c r="C43" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" s="31"/>
+      <c r="C44" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" s="20">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="31"/>
+      <c r="C46" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" s="20">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F47" s="20">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F48" s="20">
+        <v>-1.036</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" s="31"/>
+      <c r="C51" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="31"/>
+    </row>
+    <row r="52" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="31"/>
+      <c r="C52" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="31"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" s="20">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="44"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F54" s="20">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="44"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55" s="20">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="45"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="27">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="23">
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H14:H16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
